--- a/results/all_sarsa copy.xlsx
+++ b/results/all_sarsa copy.xlsx
@@ -3149,6 +3149,378 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/e^0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,10 +5005,10 @@
       <xdr:rowOff>178982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>265814</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>759080</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>103372</xdr:rowOff>
+      <xdr:rowOff>160574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4923,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4978,6 +5350,9 @@
       <c r="Q2">
         <v>0.02</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -5002,6 +5377,9 @@
       <c r="Q3">
         <v>0.02</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -5026,6 +5404,9 @@
       <c r="Q4">
         <v>0.08</v>
       </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -5050,6 +5431,9 @@
       <c r="Q5">
         <v>0.06</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -5074,6 +5458,9 @@
       <c r="Q6">
         <v>0.14000000000000001</v>
       </c>
+      <c r="R6">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -5098,6 +5485,9 @@
       <c r="Q7">
         <v>0.08</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -5122,6 +5512,9 @@
       <c r="Q8">
         <v>0.18</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -5146,6 +5539,9 @@
       <c r="Q9">
         <v>0.08</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -5170,6 +5566,9 @@
       <c r="Q10">
         <v>0.12</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5194,6 +5593,9 @@
       <c r="Q11">
         <v>0.1</v>
       </c>
+      <c r="R11">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -5218,6 +5620,9 @@
       <c r="Q12">
         <v>0.12</v>
       </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -5242,6 +5647,9 @@
       <c r="Q13">
         <v>0.04</v>
       </c>
+      <c r="R13">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -5266,6 +5674,9 @@
       <c r="Q14">
         <v>0.12</v>
       </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -5290,6 +5701,9 @@
       <c r="Q15">
         <v>0.04</v>
       </c>
+      <c r="R15">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -5314,8 +5728,11 @@
       <c r="Q16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5338,8 +5755,11 @@
       <c r="Q17">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5362,8 +5782,11 @@
       <c r="Q18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5386,8 +5809,11 @@
       <c r="Q19">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5410,8 +5836,11 @@
       <c r="Q20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5434,8 +5863,11 @@
       <c r="Q21">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5458,8 +5890,11 @@
       <c r="Q22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5482,8 +5917,11 @@
       <c r="Q23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5506,8 +5944,11 @@
       <c r="Q24">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5530,8 +5971,11 @@
       <c r="Q25">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5554,8 +5998,11 @@
       <c r="Q26">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5578,8 +6025,11 @@
       <c r="Q27">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5602,8 +6052,11 @@
       <c r="Q28">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5626,8 +6079,11 @@
       <c r="Q29">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5650,8 +6106,11 @@
       <c r="Q30">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5674,8 +6133,11 @@
       <c r="Q31">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5698,8 +6160,11 @@
       <c r="Q32">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5722,8 +6187,11 @@
       <c r="Q33">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5746,8 +6214,11 @@
       <c r="Q34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5770,8 +6241,11 @@
       <c r="Q35">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5794,8 +6268,11 @@
       <c r="Q36">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5818,8 +6295,11 @@
       <c r="Q37">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5842,8 +6322,11 @@
       <c r="Q38">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5866,8 +6349,11 @@
       <c r="Q39">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5890,8 +6376,11 @@
       <c r="Q40">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5914,8 +6403,11 @@
       <c r="Q41">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5938,8 +6430,11 @@
       <c r="Q42">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5962,8 +6457,11 @@
       <c r="Q43">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5986,8 +6484,11 @@
       <c r="Q44">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6010,8 +6511,11 @@
       <c r="Q45">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6034,8 +6538,11 @@
       <c r="Q46">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6058,8 +6565,11 @@
       <c r="Q47">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6082,8 +6592,11 @@
       <c r="Q48">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6106,8 +6619,11 @@
       <c r="Q49">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6130,8 +6646,11 @@
       <c r="Q50">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6154,8 +6673,11 @@
       <c r="Q51">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6177,73 +6699,73 @@
         <v>0.30958333333333338</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>

--- a/results/all_sarsa copy.xlsx
+++ b/results/all_sarsa copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="24660" windowHeight="15240" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="300" yWindow="460" windowWidth="24660" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5295,7 +5295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/results/all_sarsa copy.xlsx
+++ b/results/all_sarsa copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="300" yWindow="460" windowWidth="24660" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="24660" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1588,484 +1588,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>e=0.1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.309583333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2074,11 +1596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1667978192"/>
-        <c:axId val="1667980736"/>
+        <c:axId val="663534048"/>
+        <c:axId val="663536896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1667978192"/>
+        <c:axId val="663534048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -2192,12 +1714,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667980736"/>
+        <c:crossAx val="663536896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1667980736"/>
+        <c:axId val="663536896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667978192"/>
+        <c:crossAx val="663534048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3535,11 +3057,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1740302064"/>
-        <c:axId val="1745760640"/>
+        <c:axId val="736186256"/>
+        <c:axId val="736190464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1740302064"/>
+        <c:axId val="736186256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,12 +3177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1745760640"/>
+        <c:crossAx val="736190464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1745760640"/>
+        <c:axId val="736190464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740302064"/>
+        <c:crossAx val="736186256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5295,7 +4817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
